--- a/Requisito.xlsx
+++ b/Requisito.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>REQUISITOS</t>
   </si>
@@ -129,6 +129,15 @@
   </si>
   <si>
     <t>O usuário cadastrado pode acionar a função de alerta (por notificação ou sms)</t>
+  </si>
+  <si>
+    <t>DESEJAVÉL</t>
+  </si>
+  <si>
+    <t>ESSENCIAL</t>
+  </si>
+  <si>
+    <t>PRIORIDADE</t>
   </si>
 </sst>
 </file>
@@ -156,7 +165,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,13 +174,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -203,19 +230,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -498,307 +538,333 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B10:I10"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="B19:I19"/>
     <mergeCell ref="B20:I20"/>
@@ -808,17 +874,6 @@
     <mergeCell ref="A15:I15"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
